--- a/src/CSVFiles/timevspeedAmoeba.xlsx
+++ b/src/CSVFiles/timevspeedAmoeba.xlsx
@@ -8,29 +8,46 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\Documents\MovingPlatformPython\src\CSVFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C651657-8C9F-4C13-9804-CA21C7DB8B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA26ED24-0B72-4825-A78B-E770B549E6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timevspeedAmoeba" sheetId="1" r:id="rId1"/>
+    <sheet name="timevspeedAmoebaZoom" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">timevspeedAmoeba!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">timevspeedAmoeba!$B$2:$B$245</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">timevspeedAmoebaZoom!$E$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">timevspeedAmoebaZoom!$E$2:$E$130</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">timevspeedAmoebaZoom!$B$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">timevspeedAmoebaZoom!$B$2:$B$130</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">timevspeedAmoebaZoom!$E$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">timevspeedAmoebaZoom!$E$2:$E$130</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">timevspeedAmoebaZoom!$B$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">timevspeedAmoebaZoom!$B$2:$B$130</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">timevspeedAmoebaZoom!$E$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">timevspeedAmoebaZoom!$E$2:$E$130</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">timevspeedAmoeba!$E$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">timevspeedAmoebaZoom!$B$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">timevspeedAmoebaZoom!$B$2:$B$130</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">timevspeedAmoebaZoom!$E$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">timevspeedAmoebaZoom!$E$2:$E$130</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">timevspeedAmoeba!$E$2:$E$245</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">timevspeedAmoeba!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">timevspeedAmoeba!$B$2:$B$245</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">timevspeedAmoeba!$E$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">timevspeedAmoeba!$E$2:$E$245</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">timevspeedAmoebaZoom!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">timevspeedAmoebaZoom!$B$2:$B$130</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">timevspeedAmoebaZoom!$E$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">timevspeedAmoebaZoom!$E$2:$E$130</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">timevspeedAmoebaZoom!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">timevspeedAmoebaZoom!$B$2:$B$130</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
   <si>
     <t>time</t>
   </si>
@@ -706,6 +723,130 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Amoeba Proteus </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Speed Variance Based on Medium</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{43A34B29-8147-4385-AE40-1C488EB0D25A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>Petri Speed</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{DE21B5D4-A45B-48C0-A129-D409B02ECD5C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Slide Speed</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Speeds (um/s)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Speeds (um/s)</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -746,7 +887,559 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1344,6 +2037,89 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6507AE4F-6A21-4D7E-97EC-E24B02ABB840}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3521075" y="215900"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1643,7 +2419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E522"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -7299,4 +8075,1714 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1200BC7-774B-4FC1-B3F5-D79861D27970}">
+  <dimension ref="A1:E130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1E-3</v>
+      </c>
+      <c r="B2">
+        <v>6.86</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>37.183999999999997</v>
+      </c>
+      <c r="B3">
+        <v>20.88</v>
+      </c>
+      <c r="D3">
+        <v>34.905000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>57.482999999999997</v>
+      </c>
+      <c r="B4">
+        <v>30.35</v>
+      </c>
+      <c r="D4">
+        <v>70.605000000000004</v>
+      </c>
+      <c r="E4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>93.081999999999994</v>
+      </c>
+      <c r="B5">
+        <v>15.35</v>
+      </c>
+      <c r="D5">
+        <v>99.603999999999999</v>
+      </c>
+      <c r="E5">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>149.684</v>
+      </c>
+      <c r="B6">
+        <v>10.02</v>
+      </c>
+      <c r="D6">
+        <v>128.60400000000001</v>
+      </c>
+      <c r="E6">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>196.08199999999999</v>
+      </c>
+      <c r="B7">
+        <v>40.39</v>
+      </c>
+      <c r="D7">
+        <v>168.10300000000001</v>
+      </c>
+      <c r="E7">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>239.68199999999999</v>
+      </c>
+      <c r="B8">
+        <v>19.12</v>
+      </c>
+      <c r="D8">
+        <v>193.90299999999999</v>
+      </c>
+      <c r="E8">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>266.28100000000001</v>
+      </c>
+      <c r="B9">
+        <v>18.68</v>
+      </c>
+      <c r="D9">
+        <v>206.203</v>
+      </c>
+      <c r="E9">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>293.58199999999999</v>
+      </c>
+      <c r="B10">
+        <v>14.96</v>
+      </c>
+      <c r="D10">
+        <v>228.005</v>
+      </c>
+      <c r="E10">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>320.58300000000003</v>
+      </c>
+      <c r="B11">
+        <v>13.54</v>
+      </c>
+      <c r="D11">
+        <v>251.40299999999999</v>
+      </c>
+      <c r="E11">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>350.28300000000002</v>
+      </c>
+      <c r="B12">
+        <v>14.31</v>
+      </c>
+      <c r="D12">
+        <v>273.80200000000002</v>
+      </c>
+      <c r="E12">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>378.38099999999997</v>
+      </c>
+      <c r="B13">
+        <v>27.68</v>
+      </c>
+      <c r="D13">
+        <v>296.40699999999998</v>
+      </c>
+      <c r="E13">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>407.08300000000003</v>
+      </c>
+      <c r="B14">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="D14">
+        <v>317.50700000000001</v>
+      </c>
+      <c r="E14">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>434.18299999999999</v>
+      </c>
+      <c r="B15">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="D15">
+        <v>343.20499999999998</v>
+      </c>
+      <c r="E15">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>463.28199999999998</v>
+      </c>
+      <c r="B16">
+        <v>19.84</v>
+      </c>
+      <c r="D16">
+        <v>366.20600000000002</v>
+      </c>
+      <c r="E16">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>491.08100000000002</v>
+      </c>
+      <c r="B17">
+        <v>11.3</v>
+      </c>
+      <c r="D17">
+        <v>391.40499999999997</v>
+      </c>
+      <c r="E17">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>514.28300000000002</v>
+      </c>
+      <c r="B18">
+        <v>17.3</v>
+      </c>
+      <c r="D18">
+        <v>418.40499999999997</v>
+      </c>
+      <c r="E18">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>541.88199999999995</v>
+      </c>
+      <c r="B19">
+        <v>18.28</v>
+      </c>
+      <c r="D19">
+        <v>443.50599999999997</v>
+      </c>
+      <c r="E19">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>567.98299999999995</v>
+      </c>
+      <c r="B20">
+        <v>19.93</v>
+      </c>
+      <c r="D20">
+        <v>466.904</v>
+      </c>
+      <c r="E20">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>596.38199999999995</v>
+      </c>
+      <c r="B21">
+        <v>20.59</v>
+      </c>
+      <c r="D21">
+        <v>493.40499999999997</v>
+      </c>
+      <c r="E21">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>624.58100000000002</v>
+      </c>
+      <c r="B22">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="D22">
+        <v>520.20600000000002</v>
+      </c>
+      <c r="E22">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>649.98199999999997</v>
+      </c>
+      <c r="B23">
+        <v>18.78</v>
+      </c>
+      <c r="D23">
+        <v>547.20699999999999</v>
+      </c>
+      <c r="E23">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>674.88400000000001</v>
+      </c>
+      <c r="B24">
+        <v>14.45</v>
+      </c>
+      <c r="D24">
+        <v>576.80600000000004</v>
+      </c>
+      <c r="E24">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>712.76300000000003</v>
+      </c>
+      <c r="B25">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="D25">
+        <v>609.10699999999997</v>
+      </c>
+      <c r="E25">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>751.66399999999999</v>
+      </c>
+      <c r="B26">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>642.40599999999995</v>
+      </c>
+      <c r="E26">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>792.06299999999999</v>
+      </c>
+      <c r="B27">
+        <v>11.51</v>
+      </c>
+      <c r="D27">
+        <v>672.50699999999995</v>
+      </c>
+      <c r="E27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>827.26</v>
+      </c>
+      <c r="B28">
+        <v>17.48</v>
+      </c>
+      <c r="D28">
+        <v>703.30499999999995</v>
+      </c>
+      <c r="E28">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>876.86400000000003</v>
+      </c>
+      <c r="B29">
+        <v>14.69</v>
+      </c>
+      <c r="D29">
+        <v>732.90599999999995</v>
+      </c>
+      <c r="E29">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>915.06</v>
+      </c>
+      <c r="B30">
+        <v>14.35</v>
+      </c>
+      <c r="D30">
+        <v>769.50400000000002</v>
+      </c>
+      <c r="E30">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>946.46299999999997</v>
+      </c>
+      <c r="B31">
+        <v>11.4</v>
+      </c>
+      <c r="D31">
+        <v>804.803</v>
+      </c>
+      <c r="E31">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>987.15899999999999</v>
+      </c>
+      <c r="B32">
+        <v>10.11</v>
+      </c>
+      <c r="D32">
+        <v>837.60299999999995</v>
+      </c>
+      <c r="E32">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1026.3630000000001</v>
+      </c>
+      <c r="B33">
+        <v>12.8</v>
+      </c>
+      <c r="D33">
+        <v>870.80399999999997</v>
+      </c>
+      <c r="E33">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1050.663</v>
+      </c>
+      <c r="B34">
+        <v>16.09</v>
+      </c>
+      <c r="D34">
+        <v>901.00199999999995</v>
+      </c>
+      <c r="E34">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1078.059</v>
+      </c>
+      <c r="B35">
+        <v>10.83</v>
+      </c>
+      <c r="D35">
+        <v>932.30399999999997</v>
+      </c>
+      <c r="E35">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1099.364</v>
+      </c>
+      <c r="B36">
+        <v>17.75</v>
+      </c>
+      <c r="D36">
+        <v>958.90599999999995</v>
+      </c>
+      <c r="E36">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1122.9639999999999</v>
+      </c>
+      <c r="B37">
+        <v>21.45</v>
+      </c>
+      <c r="D37">
+        <v>985.80600000000004</v>
+      </c>
+      <c r="E37">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1144.663</v>
+      </c>
+      <c r="B38">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="D38">
+        <v>1013.306</v>
+      </c>
+      <c r="E38">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>1167.7619999999999</v>
+      </c>
+      <c r="B39">
+        <v>5.63</v>
+      </c>
+      <c r="D39">
+        <v>1038.105</v>
+      </c>
+      <c r="E39">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1192.559</v>
+      </c>
+      <c r="B40">
+        <v>9.93</v>
+      </c>
+      <c r="D40">
+        <v>1065.604</v>
+      </c>
+      <c r="E40">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1209.864</v>
+      </c>
+      <c r="B41">
+        <v>14.55</v>
+      </c>
+      <c r="D41">
+        <v>1093.2070000000001</v>
+      </c>
+      <c r="E41">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>1267.261</v>
+      </c>
+      <c r="B42">
+        <v>5.42</v>
+      </c>
+      <c r="D42">
+        <v>1118.403</v>
+      </c>
+      <c r="E42">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>1303.963</v>
+      </c>
+      <c r="B43">
+        <v>5.48</v>
+      </c>
+      <c r="D43">
+        <v>1142.0050000000001</v>
+      </c>
+      <c r="E43">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>1319.8620000000001</v>
+      </c>
+      <c r="B44">
+        <v>5.68</v>
+      </c>
+      <c r="D44">
+        <v>1169.7059999999999</v>
+      </c>
+      <c r="E44">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>1334.662</v>
+      </c>
+      <c r="B45">
+        <v>34.46</v>
+      </c>
+      <c r="D45">
+        <v>1196.002</v>
+      </c>
+      <c r="E45">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>1366.864</v>
+      </c>
+      <c r="B46">
+        <v>17.22</v>
+      </c>
+      <c r="D46">
+        <v>1223.402</v>
+      </c>
+      <c r="E46">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>1400.0640000000001</v>
+      </c>
+      <c r="B47">
+        <v>14.11</v>
+      </c>
+      <c r="D47">
+        <v>1248.0039999999999</v>
+      </c>
+      <c r="E47">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>1441.261</v>
+      </c>
+      <c r="B48">
+        <v>19.78</v>
+      </c>
+      <c r="D48">
+        <v>1271.604</v>
+      </c>
+      <c r="E48">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>1468.0609999999999</v>
+      </c>
+      <c r="B49">
+        <v>14.06</v>
+      </c>
+      <c r="D49">
+        <v>1295.3040000000001</v>
+      </c>
+      <c r="E49">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>1498.46</v>
+      </c>
+      <c r="B50">
+        <v>20.52</v>
+      </c>
+      <c r="D50">
+        <v>1322.1030000000001</v>
+      </c>
+      <c r="E50">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>1524.961</v>
+      </c>
+      <c r="B51">
+        <v>2.64</v>
+      </c>
+      <c r="D51">
+        <v>1349.0029999999999</v>
+      </c>
+      <c r="E51">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>1556.26</v>
+      </c>
+      <c r="B52">
+        <v>5.08</v>
+      </c>
+      <c r="D52">
+        <v>1376.7070000000001</v>
+      </c>
+      <c r="E52">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>1590.865</v>
+      </c>
+      <c r="B53">
+        <v>2.5</v>
+      </c>
+      <c r="D53">
+        <v>1404.7049999999999</v>
+      </c>
+      <c r="E53">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>1627.16</v>
+      </c>
+      <c r="B54">
+        <v>8.15</v>
+      </c>
+      <c r="D54">
+        <v>1431.606</v>
+      </c>
+      <c r="E54">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1669.3630000000001</v>
+      </c>
+      <c r="B55">
+        <v>6.09</v>
+      </c>
+      <c r="D55">
+        <v>1460.0050000000001</v>
+      </c>
+      <c r="E55">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1707.66</v>
+      </c>
+      <c r="B56">
+        <v>6.82</v>
+      </c>
+      <c r="D56">
+        <v>1488.2049999999999</v>
+      </c>
+      <c r="E56">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1753.461</v>
+      </c>
+      <c r="B57">
+        <v>7.15</v>
+      </c>
+      <c r="D57">
+        <v>1515.5050000000001</v>
+      </c>
+      <c r="E57">
+        <v>20.27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1787.162</v>
+      </c>
+      <c r="B58">
+        <v>1.99</v>
+      </c>
+      <c r="D58">
+        <v>1540.604</v>
+      </c>
+      <c r="E58">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>1817.261</v>
+      </c>
+      <c r="B59">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="D59">
+        <v>1576.5050000000001</v>
+      </c>
+      <c r="E59">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>1856.962</v>
+      </c>
+      <c r="B60">
+        <v>20.09</v>
+      </c>
+      <c r="D60">
+        <v>1605.0050000000001</v>
+      </c>
+      <c r="E60">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>1887.662</v>
+      </c>
+      <c r="B61">
+        <v>5.63</v>
+      </c>
+      <c r="D61">
+        <v>1632.107</v>
+      </c>
+      <c r="E61">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>1910.162</v>
+      </c>
+      <c r="B62">
+        <v>20.98</v>
+      </c>
+      <c r="D62">
+        <v>1659.0039999999999</v>
+      </c>
+      <c r="E62">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>1939.5609999999999</v>
+      </c>
+      <c r="B63">
+        <v>22.14</v>
+      </c>
+      <c r="D63">
+        <v>1686.6030000000001</v>
+      </c>
+      <c r="E63">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>1962.961</v>
+      </c>
+      <c r="B64">
+        <v>8.49</v>
+      </c>
+      <c r="D64">
+        <v>1716.105</v>
+      </c>
+      <c r="E64">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>1991.7629999999999</v>
+      </c>
+      <c r="B65">
+        <v>10.51</v>
+      </c>
+      <c r="D65">
+        <v>1745.7059999999999</v>
+      </c>
+      <c r="E65">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>2012.3620000000001</v>
+      </c>
+      <c r="B66">
+        <v>33.68</v>
+      </c>
+      <c r="D66">
+        <v>1778.308</v>
+      </c>
+      <c r="E66">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>2037.6610000000001</v>
+      </c>
+      <c r="B67">
+        <v>15.4</v>
+      </c>
+      <c r="D67">
+        <v>1806.5070000000001</v>
+      </c>
+      <c r="E67">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>2070.36</v>
+      </c>
+      <c r="B68">
+        <v>10.38</v>
+      </c>
+      <c r="D68">
+        <v>1834.806</v>
+      </c>
+      <c r="E68">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>2095.261</v>
+      </c>
+      <c r="B69">
+        <v>4.29</v>
+      </c>
+      <c r="D69">
+        <v>1863.203</v>
+      </c>
+      <c r="E69">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>2143.36</v>
+      </c>
+      <c r="B70">
+        <v>3.19</v>
+      </c>
+      <c r="D70">
+        <v>1892.0060000000001</v>
+      </c>
+      <c r="E70">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>2177.5630000000001</v>
+      </c>
+      <c r="B71">
+        <v>20.9</v>
+      </c>
+      <c r="D71">
+        <v>1923.307</v>
+      </c>
+      <c r="E71">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>2211.261</v>
+      </c>
+      <c r="B72">
+        <v>18.84</v>
+      </c>
+      <c r="D72">
+        <v>1954.704</v>
+      </c>
+      <c r="E72">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>2244.6610000000001</v>
+      </c>
+      <c r="B73">
+        <v>24.18</v>
+      </c>
+      <c r="D73">
+        <v>1979.702</v>
+      </c>
+      <c r="E73">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>2270.3629999999998</v>
+      </c>
+      <c r="B74">
+        <v>16.84</v>
+      </c>
+      <c r="D74">
+        <v>2005.604</v>
+      </c>
+      <c r="E74">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>2296.663</v>
+      </c>
+      <c r="B75">
+        <v>15.38</v>
+      </c>
+      <c r="D75">
+        <v>2034.7059999999999</v>
+      </c>
+      <c r="E75">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>2320.0639999999999</v>
+      </c>
+      <c r="B76">
+        <v>27.51</v>
+      </c>
+      <c r="D76">
+        <v>2062.6039999999998</v>
+      </c>
+      <c r="E76">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>2354.8629999999998</v>
+      </c>
+      <c r="B77">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="D77">
+        <v>2088.203</v>
+      </c>
+      <c r="E77">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>2380.7640000000001</v>
+      </c>
+      <c r="B78">
+        <v>27.78</v>
+      </c>
+      <c r="D78">
+        <v>2113.5070000000001</v>
+      </c>
+      <c r="E78">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>2408.3649999999998</v>
+      </c>
+      <c r="B79">
+        <v>23.32</v>
+      </c>
+      <c r="D79">
+        <v>2142.5050000000001</v>
+      </c>
+      <c r="E79">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>2445.9630000000002</v>
+      </c>
+      <c r="B80">
+        <v>43.94</v>
+      </c>
+      <c r="D80">
+        <v>2166.904</v>
+      </c>
+      <c r="E80">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>2487.864</v>
+      </c>
+      <c r="B81">
+        <v>27.61</v>
+      </c>
+      <c r="D81">
+        <v>2191.9029999999998</v>
+      </c>
+      <c r="E81">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>2521.5619999999999</v>
+      </c>
+      <c r="B82">
+        <v>30.33</v>
+      </c>
+      <c r="D82">
+        <v>2220.0070000000001</v>
+      </c>
+      <c r="E82">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>2554.6610000000001</v>
+      </c>
+      <c r="B83">
+        <v>33.97</v>
+      </c>
+      <c r="D83">
+        <v>2247.2040000000002</v>
+      </c>
+      <c r="E83">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>2594.46</v>
+      </c>
+      <c r="B84">
+        <v>31.26</v>
+      </c>
+      <c r="D84">
+        <v>2273.2069999999999</v>
+      </c>
+      <c r="E84">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>2636.864</v>
+      </c>
+      <c r="B85">
+        <v>34.81</v>
+      </c>
+      <c r="D85">
+        <v>2300.1030000000001</v>
+      </c>
+      <c r="E85">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>2667.261</v>
+      </c>
+      <c r="B86">
+        <v>29.95</v>
+      </c>
+      <c r="D86">
+        <v>2325.6039999999998</v>
+      </c>
+      <c r="E86">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>2698.9609999999998</v>
+      </c>
+      <c r="B87">
+        <v>34.04</v>
+      </c>
+      <c r="D87">
+        <v>2353.5030000000002</v>
+      </c>
+      <c r="E87">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>2730.1610000000001</v>
+      </c>
+      <c r="B88">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="D88">
+        <v>2375.9059999999999</v>
+      </c>
+      <c r="E88">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>2882.96</v>
+      </c>
+      <c r="B89">
+        <v>31.6</v>
+      </c>
+      <c r="D89">
+        <v>2401.904</v>
+      </c>
+      <c r="E89">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>2921.4639999999999</v>
+      </c>
+      <c r="B90">
+        <v>28.12</v>
+      </c>
+      <c r="D90">
+        <v>2440.1030000000001</v>
+      </c>
+      <c r="E90">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>2951.5630000000001</v>
+      </c>
+      <c r="B91">
+        <v>31.25</v>
+      </c>
+      <c r="D91">
+        <v>2470.0070000000001</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>2978.6619999999998</v>
+      </c>
+      <c r="B92">
+        <v>24.29</v>
+      </c>
+      <c r="D92">
+        <v>2502.806</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>3003.864</v>
+      </c>
+      <c r="B93">
+        <v>18.64</v>
+      </c>
+      <c r="D93">
+        <v>2527.8049999999998</v>
+      </c>
+      <c r="E93">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>3027.7649999999999</v>
+      </c>
+      <c r="B94">
+        <v>33.9</v>
+      </c>
+      <c r="D94">
+        <v>2570.0059999999999</v>
+      </c>
+      <c r="E94">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>3055.4650000000001</v>
+      </c>
+      <c r="B95">
+        <v>34.43</v>
+      </c>
+      <c r="D95">
+        <v>2602.6039999999998</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>3097.2640000000001</v>
+      </c>
+      <c r="B96">
+        <v>22.51</v>
+      </c>
+      <c r="D96">
+        <v>2645.7040000000002</v>
+      </c>
+      <c r="E96">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>3132.261</v>
+      </c>
+      <c r="B97">
+        <v>13.62</v>
+      </c>
+      <c r="D97">
+        <v>2704.0070000000001</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>3166.2629999999999</v>
+      </c>
+      <c r="B98">
+        <v>5.52</v>
+      </c>
+      <c r="D98">
+        <v>2723.4070000000002</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>3202.96</v>
+      </c>
+      <c r="B99">
+        <v>18.77</v>
+      </c>
+      <c r="D99">
+        <v>2738.203</v>
+      </c>
+      <c r="E99">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>3233.2620000000002</v>
+      </c>
+      <c r="B100">
+        <v>22.58</v>
+      </c>
+      <c r="D100">
+        <v>2760.5050000000001</v>
+      </c>
+      <c r="E100">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>3271.0639999999999</v>
+      </c>
+      <c r="B101">
+        <v>14.11</v>
+      </c>
+      <c r="D101">
+        <v>2784.4050000000002</v>
+      </c>
+      <c r="E101">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>3314.3629999999998</v>
+      </c>
+      <c r="B102">
+        <v>13.19</v>
+      </c>
+      <c r="D102">
+        <v>2802.8040000000001</v>
+      </c>
+      <c r="E102">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>3347.36</v>
+      </c>
+      <c r="B103">
+        <v>12.41</v>
+      </c>
+      <c r="D103">
+        <v>2820.404</v>
+      </c>
+      <c r="E103">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>3385.364</v>
+      </c>
+      <c r="B104">
+        <v>5.62</v>
+      </c>
+      <c r="D104">
+        <v>2842.8069999999998</v>
+      </c>
+      <c r="E104">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>3428.165</v>
+      </c>
+      <c r="B105">
+        <v>14.26</v>
+      </c>
+      <c r="D105">
+        <v>2861.5059999999999</v>
+      </c>
+      <c r="E105">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>3471.9630000000002</v>
+      </c>
+      <c r="B106">
+        <v>3.53</v>
+      </c>
+      <c r="D106">
+        <v>2884.5039999999999</v>
+      </c>
+      <c r="E106">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>3497.6610000000001</v>
+      </c>
+      <c r="B107">
+        <v>5.2</v>
+      </c>
+      <c r="D107">
+        <v>2905.0039999999999</v>
+      </c>
+      <c r="E107">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>3525.6610000000001</v>
+      </c>
+      <c r="B108">
+        <v>5.5</v>
+      </c>
+      <c r="D108">
+        <v>2924.6060000000002</v>
+      </c>
+      <c r="E108">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>3552.3620000000001</v>
+      </c>
+      <c r="B109">
+        <v>6.04</v>
+      </c>
+      <c r="D109">
+        <v>2949.5039999999999</v>
+      </c>
+      <c r="E109">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D110">
+        <v>2992.7080000000001</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D111">
+        <v>3026.2049999999999</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D112">
+        <v>3063.605</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D113">
+        <v>3096.8040000000001</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D114">
+        <v>3128.4050000000002</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D115">
+        <v>3160.806</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D116">
+        <v>3196.2049999999999</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D117">
+        <v>3234.2040000000002</v>
+      </c>
+      <c r="E117">
+        <v>13.89</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D118">
+        <v>3261.7069999999999</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D119">
+        <v>3299.0050000000001</v>
+      </c>
+      <c r="E119">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D120">
+        <v>3327.5030000000002</v>
+      </c>
+      <c r="E120">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D121">
+        <v>3359.308</v>
+      </c>
+      <c r="E121">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D122">
+        <v>3385.1080000000002</v>
+      </c>
+      <c r="E122">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D123">
+        <v>3406.9070000000002</v>
+      </c>
+      <c r="E123">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D124">
+        <v>3428.7080000000001</v>
+      </c>
+      <c r="E124">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D125">
+        <v>3452.6060000000002</v>
+      </c>
+      <c r="E125">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="126" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D126">
+        <v>3477.1039999999998</v>
+      </c>
+      <c r="E126">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D127">
+        <v>3497.7049999999999</v>
+      </c>
+      <c r="E127">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="128" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D128">
+        <v>3522.4050000000002</v>
+      </c>
+      <c r="E128">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D129">
+        <v>3548.7069999999999</v>
+      </c>
+      <c r="E129">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="130" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D130">
+        <v>3573.5039999999999</v>
+      </c>
+      <c r="E130">
+        <v>0.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/CSVFiles/timevspeedAmoeba.xlsx
+++ b/src/CSVFiles/timevspeedAmoeba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\Documents\MovingPlatformPython\src\CSVFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA26ED24-0B72-4825-A78B-E770B549E6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15AAA89-F1BF-4AAA-A092-9229E3467D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,35 +19,19 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">timevspeedAmoeba!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">timevspeedAmoeba!$B$2:$B$245</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">timevspeedAmoebaZoom!$E$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">timevspeedAmoebaZoom!$E$2:$E$130</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">timevspeedAmoebaZoom!$B$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">timevspeedAmoebaZoom!$B$2:$B$130</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">timevspeedAmoebaZoom!$E$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">timevspeedAmoebaZoom!$E$2:$E$130</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">timevspeedAmoebaZoom!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">timevspeedAmoebaZoom!$B$2:$B$130</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">timevspeedAmoebaZoom!$E$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">timevspeedAmoebaZoom!$E$2:$E$130</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">timevspeedAmoeba!$E$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">timevspeedAmoebaZoom!$B$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">timevspeedAmoebaZoom!$B$2:$B$130</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">timevspeedAmoebaZoom!$E$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">timevspeedAmoebaZoom!$E$2:$E$130</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">timevspeedAmoeba!$E$2:$E$245</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">timevspeedAmoebaZoom!$B$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">timevspeedAmoebaZoom!$B$2:$B$130</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">timevspeedAmoebaZoom!$E$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">timevspeedAmoebaZoom!$E$2:$E$130</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">timevspeedAmoebaZoom!$B$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">timevspeedAmoebaZoom!$B$2:$B$130</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">timevspeedAmoebaZoom!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">timevspeedAmoebaZoom!$D$2:$D$130</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>time</t>
   </si>
@@ -56,6 +40,18 @@
   </si>
   <si>
     <t>Petri Speed</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>timec</t>
+  </si>
+  <si>
+    <t>speeds</t>
+  </si>
+  <si>
+    <t>speedc</t>
   </si>
 </sst>
 </file>
@@ -723,130 +719,6 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              </a:rPr>
-              <a:t>Amoeba Proteus </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              </a:rPr>
-              <a:t>Speed Variance Based on Medium</a:t>
-            </a:r>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{43A34B29-8147-4385-AE40-1C488EB0D25A}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
-              <cx:v>Petri Speed</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{DE21B5D4-A45B-48C0-A129-D409B02ECD5C}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
-              <cx:v>Slide Speed</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:title>
-          <cx:tx>
-            <cx:txData>
-              <cx:v>Speeds (um/s)</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:txPr>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                </a:rPr>
-                <a:t>Speeds (um/s)</a:t>
-              </a:r>
-            </a:p>
-          </cx:txPr>
-        </cx:title>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -887,559 +759,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2037,89 +1357,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>473075</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Chart 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6507AE4F-6A21-4D7E-97EC-E24B02ABB840}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3521075" y="215900"/>
-              <a:ext cx="4572000" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8079,1710 +7316,1709 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1200BC7-774B-4FC1-B3F5-D79861D27970}">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1E-3</v>
       </c>
       <c r="B2">
         <v>6.86</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
         <v>1.42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>37.183999999999997</v>
       </c>
       <c r="B3">
         <v>20.88</v>
       </c>
+      <c r="C3">
+        <v>34.905000000000001</v>
+      </c>
       <c r="D3">
-        <v>34.905000000000001</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>57.482999999999997</v>
       </c>
       <c r="B4">
         <v>30.35</v>
       </c>
+      <c r="C4">
+        <v>70.605000000000004</v>
+      </c>
       <c r="D4">
-        <v>70.605000000000004</v>
-      </c>
-      <c r="E4">
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>93.081999999999994</v>
       </c>
       <c r="B5">
         <v>15.35</v>
       </c>
+      <c r="C5">
+        <v>99.603999999999999</v>
+      </c>
       <c r="D5">
-        <v>99.603999999999999</v>
-      </c>
-      <c r="E5">
         <v>6.46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>149.684</v>
       </c>
       <c r="B6">
         <v>10.02</v>
       </c>
+      <c r="C6">
+        <v>128.60400000000001</v>
+      </c>
       <c r="D6">
-        <v>128.60400000000001</v>
-      </c>
-      <c r="E6">
         <v>1.48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>196.08199999999999</v>
       </c>
       <c r="B7">
         <v>40.39</v>
       </c>
+      <c r="C7">
+        <v>168.10300000000001</v>
+      </c>
       <c r="D7">
-        <v>168.10300000000001</v>
-      </c>
-      <c r="E7">
         <v>1.51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>239.68199999999999</v>
       </c>
       <c r="B8">
         <v>19.12</v>
       </c>
+      <c r="C8">
+        <v>193.90299999999999</v>
+      </c>
       <c r="D8">
-        <v>193.90299999999999</v>
-      </c>
-      <c r="E8">
         <v>1.52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>266.28100000000001</v>
       </c>
       <c r="B9">
         <v>18.68</v>
       </c>
+      <c r="C9">
+        <v>206.203</v>
+      </c>
       <c r="D9">
-        <v>206.203</v>
-      </c>
-      <c r="E9">
         <v>0.82</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>293.58199999999999</v>
       </c>
       <c r="B10">
         <v>14.96</v>
       </c>
+      <c r="C10">
+        <v>228.005</v>
+      </c>
       <c r="D10">
-        <v>228.005</v>
-      </c>
-      <c r="E10">
         <v>1.27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>320.58300000000003</v>
       </c>
       <c r="B11">
         <v>13.54</v>
       </c>
+      <c r="C11">
+        <v>251.40299999999999</v>
+      </c>
       <c r="D11">
-        <v>251.40299999999999</v>
-      </c>
-      <c r="E11">
         <v>1.84</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>350.28300000000002</v>
       </c>
       <c r="B12">
         <v>14.31</v>
       </c>
+      <c r="C12">
+        <v>273.80200000000002</v>
+      </c>
       <c r="D12">
-        <v>273.80200000000002</v>
-      </c>
-      <c r="E12">
         <v>1.77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>378.38099999999997</v>
       </c>
       <c r="B13">
         <v>27.68</v>
       </c>
+      <c r="C13">
+        <v>296.40699999999998</v>
+      </c>
       <c r="D13">
-        <v>296.40699999999998</v>
-      </c>
-      <c r="E13">
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>407.08300000000003</v>
       </c>
       <c r="B14">
         <v>9.5299999999999994</v>
       </c>
+      <c r="C14">
+        <v>317.50700000000001</v>
+      </c>
       <c r="D14">
-        <v>317.50700000000001</v>
-      </c>
-      <c r="E14">
         <v>4.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>434.18299999999999</v>
       </c>
       <c r="B15">
         <v>16.190000000000001</v>
       </c>
+      <c r="C15">
+        <v>343.20499999999998</v>
+      </c>
       <c r="D15">
-        <v>343.20499999999998</v>
-      </c>
-      <c r="E15">
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>463.28199999999998</v>
       </c>
       <c r="B16">
         <v>19.84</v>
       </c>
+      <c r="C16">
+        <v>366.20600000000002</v>
+      </c>
       <c r="D16">
-        <v>366.20600000000002</v>
-      </c>
-      <c r="E16">
         <v>3.67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>491.08100000000002</v>
       </c>
       <c r="B17">
         <v>11.3</v>
       </c>
+      <c r="C17">
+        <v>391.40499999999997</v>
+      </c>
       <c r="D17">
-        <v>391.40499999999997</v>
-      </c>
-      <c r="E17">
         <v>3.42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>514.28300000000002</v>
       </c>
       <c r="B18">
         <v>17.3</v>
       </c>
+      <c r="C18">
+        <v>418.40499999999997</v>
+      </c>
       <c r="D18">
-        <v>418.40499999999997</v>
-      </c>
-      <c r="E18">
         <v>3.88</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>541.88199999999995</v>
       </c>
       <c r="B19">
         <v>18.28</v>
       </c>
+      <c r="C19">
+        <v>443.50599999999997</v>
+      </c>
       <c r="D19">
-        <v>443.50599999999997</v>
-      </c>
-      <c r="E19">
         <v>3.19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>567.98299999999995</v>
       </c>
       <c r="B20">
         <v>19.93</v>
       </c>
+      <c r="C20">
+        <v>466.904</v>
+      </c>
       <c r="D20">
-        <v>466.904</v>
-      </c>
-      <c r="E20">
         <v>2.63</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>596.38199999999995</v>
       </c>
       <c r="B21">
         <v>20.59</v>
       </c>
+      <c r="C21">
+        <v>493.40499999999997</v>
+      </c>
       <c r="D21">
-        <v>493.40499999999997</v>
-      </c>
-      <c r="E21">
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>624.58100000000002</v>
       </c>
       <c r="B22">
         <v>18.440000000000001</v>
       </c>
+      <c r="C22">
+        <v>520.20600000000002</v>
+      </c>
       <c r="D22">
-        <v>520.20600000000002</v>
-      </c>
-      <c r="E22">
         <v>3.03</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>649.98199999999997</v>
       </c>
       <c r="B23">
         <v>18.78</v>
       </c>
+      <c r="C23">
+        <v>547.20699999999999</v>
+      </c>
       <c r="D23">
-        <v>547.20699999999999</v>
-      </c>
-      <c r="E23">
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>674.88400000000001</v>
       </c>
       <c r="B24">
         <v>14.45</v>
       </c>
+      <c r="C24">
+        <v>576.80600000000004</v>
+      </c>
       <c r="D24">
-        <v>576.80600000000004</v>
-      </c>
-      <c r="E24">
         <v>3.29</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>712.76300000000003</v>
       </c>
       <c r="B25">
         <v>17.850000000000001</v>
       </c>
+      <c r="C25">
+        <v>609.10699999999997</v>
+      </c>
       <c r="D25">
-        <v>609.10699999999997</v>
-      </c>
-      <c r="E25">
         <v>5.21</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>751.66399999999999</v>
       </c>
       <c r="B26">
         <v>21</v>
       </c>
+      <c r="C26">
+        <v>642.40599999999995</v>
+      </c>
       <c r="D26">
-        <v>642.40599999999995</v>
-      </c>
-      <c r="E26">
         <v>1.56</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>792.06299999999999</v>
       </c>
       <c r="B27">
         <v>11.51</v>
       </c>
+      <c r="C27">
+        <v>672.50699999999995</v>
+      </c>
       <c r="D27">
-        <v>672.50699999999995</v>
-      </c>
-      <c r="E27">
         <v>0.95</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>827.26</v>
       </c>
       <c r="B28">
         <v>17.48</v>
       </c>
+      <c r="C28">
+        <v>703.30499999999995</v>
+      </c>
       <c r="D28">
-        <v>703.30499999999995</v>
-      </c>
-      <c r="E28">
         <v>0.77</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>876.86400000000003</v>
       </c>
       <c r="B29">
         <v>14.69</v>
       </c>
+      <c r="C29">
+        <v>732.90599999999995</v>
+      </c>
       <c r="D29">
-        <v>732.90599999999995</v>
-      </c>
-      <c r="E29">
         <v>1.84</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>915.06</v>
       </c>
       <c r="B30">
         <v>14.35</v>
       </c>
+      <c r="C30">
+        <v>769.50400000000002</v>
+      </c>
       <c r="D30">
-        <v>769.50400000000002</v>
-      </c>
-      <c r="E30">
         <v>0.73</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>946.46299999999997</v>
       </c>
       <c r="B31">
         <v>11.4</v>
       </c>
+      <c r="C31">
+        <v>804.803</v>
+      </c>
       <c r="D31">
-        <v>804.803</v>
-      </c>
-      <c r="E31">
         <v>5.79</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>987.15899999999999</v>
       </c>
       <c r="B32">
         <v>10.11</v>
       </c>
+      <c r="C32">
+        <v>837.60299999999995</v>
+      </c>
       <c r="D32">
-        <v>837.60299999999995</v>
-      </c>
-      <c r="E32">
         <v>2.08</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1026.3630000000001</v>
       </c>
       <c r="B33">
         <v>12.8</v>
       </c>
+      <c r="C33">
+        <v>870.80399999999997</v>
+      </c>
       <c r="D33">
-        <v>870.80399999999997</v>
-      </c>
-      <c r="E33">
         <v>2.46</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1050.663</v>
       </c>
       <c r="B34">
         <v>16.09</v>
       </c>
+      <c r="C34">
+        <v>901.00199999999995</v>
+      </c>
       <c r="D34">
-        <v>901.00199999999995</v>
-      </c>
-      <c r="E34">
         <v>3.31</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1078.059</v>
       </c>
       <c r="B35">
         <v>10.83</v>
       </c>
+      <c r="C35">
+        <v>932.30399999999997</v>
+      </c>
       <c r="D35">
-        <v>932.30399999999997</v>
-      </c>
-      <c r="E35">
         <v>2.12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1099.364</v>
       </c>
       <c r="B36">
         <v>17.75</v>
       </c>
+      <c r="C36">
+        <v>958.90599999999995</v>
+      </c>
       <c r="D36">
-        <v>958.90599999999995</v>
-      </c>
-      <c r="E36">
         <v>0.99</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1122.9639999999999</v>
       </c>
       <c r="B37">
         <v>21.45</v>
       </c>
+      <c r="C37">
+        <v>985.80600000000004</v>
+      </c>
       <c r="D37">
-        <v>985.80600000000004</v>
-      </c>
-      <c r="E37">
         <v>5.31</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1144.663</v>
       </c>
       <c r="B38">
         <v>17.920000000000002</v>
       </c>
+      <c r="C38">
+        <v>1013.306</v>
+      </c>
       <c r="D38">
-        <v>1013.306</v>
-      </c>
-      <c r="E38">
         <v>1.95</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1167.7619999999999</v>
       </c>
       <c r="B39">
         <v>5.63</v>
       </c>
+      <c r="C39">
+        <v>1038.105</v>
+      </c>
       <c r="D39">
-        <v>1038.105</v>
-      </c>
-      <c r="E39">
         <v>5.76</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1192.559</v>
       </c>
       <c r="B40">
         <v>9.93</v>
       </c>
+      <c r="C40">
+        <v>1065.604</v>
+      </c>
       <c r="D40">
-        <v>1065.604</v>
-      </c>
-      <c r="E40">
         <v>3.77</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1209.864</v>
       </c>
       <c r="B41">
         <v>14.55</v>
       </c>
+      <c r="C41">
+        <v>1093.2070000000001</v>
+      </c>
       <c r="D41">
-        <v>1093.2070000000001</v>
-      </c>
-      <c r="E41">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1267.261</v>
       </c>
       <c r="B42">
         <v>5.42</v>
       </c>
+      <c r="C42">
+        <v>1118.403</v>
+      </c>
       <c r="D42">
-        <v>1118.403</v>
-      </c>
-      <c r="E42">
         <v>3.62</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1303.963</v>
       </c>
       <c r="B43">
         <v>5.48</v>
       </c>
+      <c r="C43">
+        <v>1142.0050000000001</v>
+      </c>
       <c r="D43">
-        <v>1142.0050000000001</v>
-      </c>
-      <c r="E43">
         <v>3.82</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1319.8620000000001</v>
       </c>
       <c r="B44">
         <v>5.68</v>
       </c>
+      <c r="C44">
+        <v>1169.7059999999999</v>
+      </c>
       <c r="D44">
-        <v>1169.7059999999999</v>
-      </c>
-      <c r="E44">
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1334.662</v>
       </c>
       <c r="B45">
         <v>34.46</v>
       </c>
+      <c r="C45">
+        <v>1196.002</v>
+      </c>
       <c r="D45">
-        <v>1196.002</v>
-      </c>
-      <c r="E45">
         <v>8.82</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1366.864</v>
       </c>
       <c r="B46">
         <v>17.22</v>
       </c>
+      <c r="C46">
+        <v>1223.402</v>
+      </c>
       <c r="D46">
-        <v>1223.402</v>
-      </c>
-      <c r="E46">
         <v>1.79</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1400.0640000000001</v>
       </c>
       <c r="B47">
         <v>14.11</v>
       </c>
+      <c r="C47">
+        <v>1248.0039999999999</v>
+      </c>
       <c r="D47">
-        <v>1248.0039999999999</v>
-      </c>
-      <c r="E47">
         <v>2.76</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1441.261</v>
       </c>
       <c r="B48">
         <v>19.78</v>
       </c>
+      <c r="C48">
+        <v>1271.604</v>
+      </c>
       <c r="D48">
-        <v>1271.604</v>
-      </c>
-      <c r="E48">
         <v>4.2300000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1468.0609999999999</v>
       </c>
       <c r="B49">
         <v>14.06</v>
       </c>
+      <c r="C49">
+        <v>1295.3040000000001</v>
+      </c>
       <c r="D49">
-        <v>1295.3040000000001</v>
-      </c>
-      <c r="E49">
         <v>2.21</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1498.46</v>
       </c>
       <c r="B50">
         <v>20.52</v>
       </c>
+      <c r="C50">
+        <v>1322.1030000000001</v>
+      </c>
       <c r="D50">
-        <v>1322.1030000000001</v>
-      </c>
-      <c r="E50">
         <v>1.44</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1524.961</v>
       </c>
       <c r="B51">
         <v>2.64</v>
       </c>
+      <c r="C51">
+        <v>1349.0029999999999</v>
+      </c>
       <c r="D51">
-        <v>1349.0029999999999</v>
-      </c>
-      <c r="E51">
         <v>4.45</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1556.26</v>
       </c>
       <c r="B52">
         <v>5.08</v>
       </c>
+      <c r="C52">
+        <v>1376.7070000000001</v>
+      </c>
       <c r="D52">
-        <v>1376.7070000000001</v>
-      </c>
-      <c r="E52">
         <v>1.46</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1590.865</v>
       </c>
       <c r="B53">
         <v>2.5</v>
       </c>
+      <c r="C53">
+        <v>1404.7049999999999</v>
+      </c>
       <c r="D53">
-        <v>1404.7049999999999</v>
-      </c>
-      <c r="E53">
         <v>2.25</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1627.16</v>
       </c>
       <c r="B54">
         <v>8.15</v>
       </c>
+      <c r="C54">
+        <v>1431.606</v>
+      </c>
       <c r="D54">
-        <v>1431.606</v>
-      </c>
-      <c r="E54">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1669.3630000000001</v>
       </c>
       <c r="B55">
         <v>6.09</v>
       </c>
+      <c r="C55">
+        <v>1460.0050000000001</v>
+      </c>
       <c r="D55">
-        <v>1460.0050000000001</v>
-      </c>
-      <c r="E55">
         <v>5.63</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1707.66</v>
       </c>
       <c r="B56">
         <v>6.82</v>
       </c>
+      <c r="C56">
+        <v>1488.2049999999999</v>
+      </c>
       <c r="D56">
-        <v>1488.2049999999999</v>
-      </c>
-      <c r="E56">
         <v>2.29</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1753.461</v>
       </c>
       <c r="B57">
         <v>7.15</v>
       </c>
+      <c r="C57">
+        <v>1515.5050000000001</v>
+      </c>
       <c r="D57">
-        <v>1515.5050000000001</v>
-      </c>
-      <c r="E57">
         <v>20.27</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1787.162</v>
       </c>
       <c r="B58">
         <v>1.99</v>
       </c>
+      <c r="C58">
+        <v>1540.604</v>
+      </c>
       <c r="D58">
-        <v>1540.604</v>
-      </c>
-      <c r="E58">
         <v>4.8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1817.261</v>
       </c>
       <c r="B59">
         <v>17.489999999999998</v>
       </c>
+      <c r="C59">
+        <v>1576.5050000000001</v>
+      </c>
       <c r="D59">
-        <v>1576.5050000000001</v>
-      </c>
-      <c r="E59">
         <v>3.51</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1856.962</v>
       </c>
       <c r="B60">
         <v>20.09</v>
       </c>
+      <c r="C60">
+        <v>1605.0050000000001</v>
+      </c>
       <c r="D60">
-        <v>1605.0050000000001</v>
-      </c>
-      <c r="E60">
         <v>11.41</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1887.662</v>
       </c>
       <c r="B61">
         <v>5.63</v>
       </c>
+      <c r="C61">
+        <v>1632.107</v>
+      </c>
       <c r="D61">
-        <v>1632.107</v>
-      </c>
-      <c r="E61">
         <v>5.42</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1910.162</v>
       </c>
       <c r="B62">
         <v>20.98</v>
       </c>
+      <c r="C62">
+        <v>1659.0039999999999</v>
+      </c>
       <c r="D62">
-        <v>1659.0039999999999</v>
-      </c>
-      <c r="E62">
         <v>2.08</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1939.5609999999999</v>
       </c>
       <c r="B63">
         <v>22.14</v>
       </c>
+      <c r="C63">
+        <v>1686.6030000000001</v>
+      </c>
       <c r="D63">
-        <v>1686.6030000000001</v>
-      </c>
-      <c r="E63">
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1962.961</v>
       </c>
       <c r="B64">
         <v>8.49</v>
       </c>
+      <c r="C64">
+        <v>1716.105</v>
+      </c>
       <c r="D64">
-        <v>1716.105</v>
-      </c>
-      <c r="E64">
         <v>1.84</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1991.7629999999999</v>
       </c>
       <c r="B65">
         <v>10.51</v>
       </c>
+      <c r="C65">
+        <v>1745.7059999999999</v>
+      </c>
       <c r="D65">
-        <v>1745.7059999999999</v>
-      </c>
-      <c r="E65">
         <v>4.46</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2012.3620000000001</v>
       </c>
       <c r="B66">
         <v>33.68</v>
       </c>
+      <c r="C66">
+        <v>1778.308</v>
+      </c>
       <c r="D66">
-        <v>1778.308</v>
-      </c>
-      <c r="E66">
         <v>4.55</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2037.6610000000001</v>
       </c>
       <c r="B67">
         <v>15.4</v>
       </c>
+      <c r="C67">
+        <v>1806.5070000000001</v>
+      </c>
       <c r="D67">
-        <v>1806.5070000000001</v>
-      </c>
-      <c r="E67">
         <v>8.93</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2070.36</v>
       </c>
       <c r="B68">
         <v>10.38</v>
       </c>
+      <c r="C68">
+        <v>1834.806</v>
+      </c>
       <c r="D68">
-        <v>1834.806</v>
-      </c>
-      <c r="E68">
         <v>4.2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>2095.261</v>
       </c>
       <c r="B69">
         <v>4.29</v>
       </c>
+      <c r="C69">
+        <v>1863.203</v>
+      </c>
       <c r="D69">
-        <v>1863.203</v>
-      </c>
-      <c r="E69">
         <v>2.79</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>2143.36</v>
       </c>
       <c r="B70">
         <v>3.19</v>
       </c>
+      <c r="C70">
+        <v>1892.0060000000001</v>
+      </c>
       <c r="D70">
-        <v>1892.0060000000001</v>
-      </c>
-      <c r="E70">
         <v>1.85</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2177.5630000000001</v>
       </c>
       <c r="B71">
         <v>20.9</v>
       </c>
+      <c r="C71">
+        <v>1923.307</v>
+      </c>
       <c r="D71">
-        <v>1923.307</v>
-      </c>
-      <c r="E71">
         <v>2.9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2211.261</v>
       </c>
       <c r="B72">
         <v>18.84</v>
       </c>
+      <c r="C72">
+        <v>1954.704</v>
+      </c>
       <c r="D72">
-        <v>1954.704</v>
-      </c>
-      <c r="E72">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2244.6610000000001</v>
       </c>
       <c r="B73">
         <v>24.18</v>
       </c>
+      <c r="C73">
+        <v>1979.702</v>
+      </c>
       <c r="D73">
-        <v>1979.702</v>
-      </c>
-      <c r="E73">
         <v>2.66</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2270.3629999999998</v>
       </c>
       <c r="B74">
         <v>16.84</v>
       </c>
+      <c r="C74">
+        <v>2005.604</v>
+      </c>
       <c r="D74">
-        <v>2005.604</v>
-      </c>
-      <c r="E74">
         <v>5.27</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2296.663</v>
       </c>
       <c r="B75">
         <v>15.38</v>
       </c>
+      <c r="C75">
+        <v>2034.7059999999999</v>
+      </c>
       <c r="D75">
-        <v>2034.7059999999999</v>
-      </c>
-      <c r="E75">
         <v>2.69</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>2320.0639999999999</v>
       </c>
       <c r="B76">
         <v>27.51</v>
       </c>
+      <c r="C76">
+        <v>2062.6039999999998</v>
+      </c>
       <c r="D76">
-        <v>2062.6039999999998</v>
-      </c>
-      <c r="E76">
         <v>3.86</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>2354.8629999999998</v>
       </c>
       <c r="B77">
         <v>20.420000000000002</v>
       </c>
+      <c r="C77">
+        <v>2088.203</v>
+      </c>
       <c r="D77">
-        <v>2088.203</v>
-      </c>
-      <c r="E77">
         <v>3.62</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>2380.7640000000001</v>
       </c>
       <c r="B78">
         <v>27.78</v>
       </c>
+      <c r="C78">
+        <v>2113.5070000000001</v>
+      </c>
       <c r="D78">
-        <v>2113.5070000000001</v>
-      </c>
-      <c r="E78">
         <v>2.37</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>2408.3649999999998</v>
       </c>
       <c r="B79">
         <v>23.32</v>
       </c>
+      <c r="C79">
+        <v>2142.5050000000001</v>
+      </c>
       <c r="D79">
-        <v>2142.5050000000001</v>
-      </c>
-      <c r="E79">
         <v>1.43</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>2445.9630000000002</v>
       </c>
       <c r="B80">
         <v>43.94</v>
       </c>
+      <c r="C80">
+        <v>2166.904</v>
+      </c>
       <c r="D80">
-        <v>2166.904</v>
-      </c>
-      <c r="E80">
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>2487.864</v>
       </c>
       <c r="B81">
         <v>27.61</v>
       </c>
+      <c r="C81">
+        <v>2191.9029999999998</v>
+      </c>
       <c r="D81">
-        <v>2191.9029999999998</v>
-      </c>
-      <c r="E81">
         <v>5.03</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>2521.5619999999999</v>
       </c>
       <c r="B82">
         <v>30.33</v>
       </c>
+      <c r="C82">
+        <v>2220.0070000000001</v>
+      </c>
       <c r="D82">
-        <v>2220.0070000000001</v>
-      </c>
-      <c r="E82">
         <v>0.21</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2554.6610000000001</v>
       </c>
       <c r="B83">
         <v>33.97</v>
       </c>
+      <c r="C83">
+        <v>2247.2040000000002</v>
+      </c>
       <c r="D83">
-        <v>2247.2040000000002</v>
-      </c>
-      <c r="E83">
         <v>0.68</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2594.46</v>
       </c>
       <c r="B84">
         <v>31.26</v>
       </c>
+      <c r="C84">
+        <v>2273.2069999999999</v>
+      </c>
       <c r="D84">
-        <v>2273.2069999999999</v>
-      </c>
-      <c r="E84">
         <v>0.88</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>2636.864</v>
       </c>
       <c r="B85">
         <v>34.81</v>
       </c>
+      <c r="C85">
+        <v>2300.1030000000001</v>
+      </c>
       <c r="D85">
-        <v>2300.1030000000001</v>
-      </c>
-      <c r="E85">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>2667.261</v>
       </c>
       <c r="B86">
         <v>29.95</v>
       </c>
+      <c r="C86">
+        <v>2325.6039999999998</v>
+      </c>
       <c r="D86">
-        <v>2325.6039999999998</v>
-      </c>
-      <c r="E86">
         <v>3.61</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2698.9609999999998</v>
       </c>
       <c r="B87">
         <v>34.04</v>
       </c>
+      <c r="C87">
+        <v>2353.5030000000002</v>
+      </c>
       <c r="D87">
-        <v>2353.5030000000002</v>
-      </c>
-      <c r="E87">
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>2730.1610000000001</v>
       </c>
       <c r="B88">
         <v>17.489999999999998</v>
       </c>
+      <c r="C88">
+        <v>2375.9059999999999</v>
+      </c>
       <c r="D88">
-        <v>2375.9059999999999</v>
-      </c>
-      <c r="E88">
         <v>4.55</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>2882.96</v>
       </c>
       <c r="B89">
         <v>31.6</v>
       </c>
+      <c r="C89">
+        <v>2401.904</v>
+      </c>
       <c r="D89">
-        <v>2401.904</v>
-      </c>
-      <c r="E89">
         <v>11.42</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2921.4639999999999</v>
       </c>
       <c r="B90">
         <v>28.12</v>
       </c>
+      <c r="C90">
+        <v>2440.1030000000001</v>
+      </c>
       <c r="D90">
-        <v>2440.1030000000001</v>
-      </c>
-      <c r="E90">
         <v>0.02</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>2951.5630000000001</v>
       </c>
       <c r="B91">
         <v>31.25</v>
       </c>
+      <c r="C91">
+        <v>2470.0070000000001</v>
+      </c>
       <c r="D91">
-        <v>2470.0070000000001</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>2978.6619999999998</v>
       </c>
       <c r="B92">
         <v>24.29</v>
       </c>
+      <c r="C92">
+        <v>2502.806</v>
+      </c>
       <c r="D92">
-        <v>2502.806</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>3003.864</v>
       </c>
       <c r="B93">
         <v>18.64</v>
       </c>
+      <c r="C93">
+        <v>2527.8049999999998</v>
+      </c>
       <c r="D93">
-        <v>2527.8049999999998</v>
-      </c>
-      <c r="E93">
         <v>2.37</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>3027.7649999999999</v>
       </c>
       <c r="B94">
         <v>33.9</v>
       </c>
+      <c r="C94">
+        <v>2570.0059999999999</v>
+      </c>
       <c r="D94">
-        <v>2570.0059999999999</v>
-      </c>
-      <c r="E94">
         <v>3.07</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>3055.4650000000001</v>
       </c>
       <c r="B95">
         <v>34.43</v>
       </c>
+      <c r="C95">
+        <v>2602.6039999999998</v>
+      </c>
       <c r="D95">
-        <v>2602.6039999999998</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>3097.2640000000001</v>
       </c>
       <c r="B96">
         <v>22.51</v>
       </c>
+      <c r="C96">
+        <v>2645.7040000000002</v>
+      </c>
       <c r="D96">
-        <v>2645.7040000000002</v>
-      </c>
-      <c r="E96">
         <v>1.72</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>3132.261</v>
       </c>
       <c r="B97">
         <v>13.62</v>
       </c>
+      <c r="C97">
+        <v>2704.0070000000001</v>
+      </c>
       <c r="D97">
-        <v>2704.0070000000001</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>3166.2629999999999</v>
       </c>
       <c r="B98">
         <v>5.52</v>
       </c>
+      <c r="C98">
+        <v>2723.4070000000002</v>
+      </c>
       <c r="D98">
-        <v>2723.4070000000002</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>3202.96</v>
       </c>
       <c r="B99">
         <v>18.77</v>
       </c>
+      <c r="C99">
+        <v>2738.203</v>
+      </c>
       <c r="D99">
-        <v>2738.203</v>
-      </c>
-      <c r="E99">
         <v>1.63</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>3233.2620000000002</v>
       </c>
       <c r="B100">
         <v>22.58</v>
       </c>
+      <c r="C100">
+        <v>2760.5050000000001</v>
+      </c>
       <c r="D100">
-        <v>2760.5050000000001</v>
-      </c>
-      <c r="E100">
         <v>1.53</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>3271.0639999999999</v>
       </c>
       <c r="B101">
         <v>14.11</v>
       </c>
+      <c r="C101">
+        <v>2784.4050000000002</v>
+      </c>
       <c r="D101">
-        <v>2784.4050000000002</v>
-      </c>
-      <c r="E101">
         <v>1.98</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>3314.3629999999998</v>
       </c>
       <c r="B102">
         <v>13.19</v>
       </c>
+      <c r="C102">
+        <v>2802.8040000000001</v>
+      </c>
       <c r="D102">
-        <v>2802.8040000000001</v>
-      </c>
-      <c r="E102">
         <v>5.94</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>3347.36</v>
       </c>
       <c r="B103">
         <v>12.41</v>
       </c>
+      <c r="C103">
+        <v>2820.404</v>
+      </c>
       <c r="D103">
-        <v>2820.404</v>
-      </c>
-      <c r="E103">
         <v>12.83</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>3385.364</v>
       </c>
       <c r="B104">
         <v>5.62</v>
       </c>
+      <c r="C104">
+        <v>2842.8069999999998</v>
+      </c>
       <c r="D104">
-        <v>2842.8069999999998</v>
-      </c>
-      <c r="E104">
         <v>1.86</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>3428.165</v>
       </c>
       <c r="B105">
         <v>14.26</v>
       </c>
+      <c r="C105">
+        <v>2861.5059999999999</v>
+      </c>
       <c r="D105">
-        <v>2861.5059999999999</v>
-      </c>
-      <c r="E105">
         <v>2.34</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>3471.9630000000002</v>
       </c>
       <c r="B106">
         <v>3.53</v>
       </c>
+      <c r="C106">
+        <v>2884.5039999999999</v>
+      </c>
       <c r="D106">
-        <v>2884.5039999999999</v>
-      </c>
-      <c r="E106">
         <v>1.8</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>3497.6610000000001</v>
       </c>
       <c r="B107">
         <v>5.2</v>
       </c>
+      <c r="C107">
+        <v>2905.0039999999999</v>
+      </c>
       <c r="D107">
-        <v>2905.0039999999999</v>
-      </c>
-      <c r="E107">
         <v>5.18</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>3525.6610000000001</v>
       </c>
       <c r="B108">
         <v>5.5</v>
       </c>
+      <c r="C108">
+        <v>2924.6060000000002</v>
+      </c>
       <c r="D108">
-        <v>2924.6060000000002</v>
-      </c>
-      <c r="E108">
         <v>0.95</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>3552.3620000000001</v>
       </c>
       <c r="B109">
         <v>6.04</v>
       </c>
+      <c r="C109">
+        <v>2949.5039999999999</v>
+      </c>
       <c r="D109">
-        <v>2949.5039999999999</v>
-      </c>
-      <c r="E109">
         <v>11.83</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C110">
+        <v>2992.7080000000001</v>
+      </c>
       <c r="D110">
-        <v>2992.7080000000001</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C111">
+        <v>3026.2049999999999</v>
+      </c>
       <c r="D111">
-        <v>3026.2049999999999</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C112">
+        <v>3063.605</v>
+      </c>
       <c r="D112">
-        <v>3063.605</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C113">
+        <v>3096.8040000000001</v>
+      </c>
       <c r="D113">
-        <v>3096.8040000000001</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C114">
+        <v>3128.4050000000002</v>
+      </c>
       <c r="D114">
-        <v>3128.4050000000002</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C115">
+        <v>3160.806</v>
+      </c>
       <c r="D115">
-        <v>3160.806</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C116">
+        <v>3196.2049999999999</v>
+      </c>
       <c r="D116">
-        <v>3196.2049999999999</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C117">
+        <v>3234.2040000000002</v>
+      </c>
       <c r="D117">
-        <v>3234.2040000000002</v>
-      </c>
-      <c r="E117">
         <v>13.89</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C118">
+        <v>3261.7069999999999</v>
+      </c>
       <c r="D118">
-        <v>3261.7069999999999</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C119">
+        <v>3299.0050000000001</v>
+      </c>
       <c r="D119">
-        <v>3299.0050000000001</v>
-      </c>
-      <c r="E119">
         <v>0.96</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C120">
+        <v>3327.5030000000002</v>
+      </c>
       <c r="D120">
-        <v>3327.5030000000002</v>
-      </c>
-      <c r="E120">
         <v>1.19</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C121">
+        <v>3359.308</v>
+      </c>
       <c r="D121">
-        <v>3359.308</v>
-      </c>
-      <c r="E121">
         <v>1.86</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C122">
+        <v>3385.1080000000002</v>
+      </c>
       <c r="D122">
-        <v>3385.1080000000002</v>
-      </c>
-      <c r="E122">
         <v>0.82</v>
       </c>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C123">
+        <v>3406.9070000000002</v>
+      </c>
       <c r="D123">
-        <v>3406.9070000000002</v>
-      </c>
-      <c r="E123">
         <v>1.31</v>
       </c>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C124">
+        <v>3428.7080000000001</v>
+      </c>
       <c r="D124">
-        <v>3428.7080000000001</v>
-      </c>
-      <c r="E124">
         <v>1.46</v>
       </c>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C125">
+        <v>3452.6060000000002</v>
+      </c>
       <c r="D125">
-        <v>3452.6060000000002</v>
-      </c>
-      <c r="E125">
         <v>1.41</v>
       </c>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C126">
+        <v>3477.1039999999998</v>
+      </c>
       <c r="D126">
-        <v>3477.1039999999998</v>
-      </c>
-      <c r="E126">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C127">
+        <v>3497.7049999999999</v>
+      </c>
       <c r="D127">
-        <v>3497.7049999999999</v>
-      </c>
-      <c r="E127">
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C128">
+        <v>3522.4050000000002</v>
+      </c>
       <c r="D128">
-        <v>3522.4050000000002</v>
-      </c>
-      <c r="E128">
         <v>0.21</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C129">
+        <v>3548.7069999999999</v>
+      </c>
       <c r="D129">
-        <v>3548.7069999999999</v>
-      </c>
-      <c r="E129">
         <v>0.73</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C130">
+        <v>3573.5039999999999</v>
+      </c>
       <c r="D130">
-        <v>3573.5039999999999</v>
-      </c>
-      <c r="E130">
         <v>0.45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>